--- a/xls/slamp/result/slamp_aumentato.xlsx
+++ b/xls/slamp/result/slamp_aumentato.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="583" count="583">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="577" count="577">
   <x:si>
     <x:t>supplier</x:t>
   </x:si>
@@ -1024,9 +1024,6 @@
     <x:t>HAN78SOST0G1LE000</x:t>
   </x:si>
   <x:si>
-    <x:t>ACC00ALL0000T_HUG</x:t>
-  </x:si>
-  <x:si>
     <x:t>HUG89SINF002LE000</x:t>
   </x:si>
   <x:si>
@@ -1228,9 +1225,6 @@
     <x:t>LAF97TAVB000LE000</x:t>
   </x:si>
   <x:si>
-    <x:t>ACC00TAV0003W_LAF</x:t>
-  </x:si>
-  <x:si>
     <x:t>PAL13PFO0003__PAL</x:t>
   </x:si>
   <x:si>
@@ -1435,21 +1429,12 @@
     <x:t>MOO89TAV0000W_000</x:t>
   </x:si>
   <x:si>
-    <x:t>ACC00PLF0000W_NUV</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACC00COP0000__NUV</x:t>
-  </x:si>
-  <x:si>
     <x:t>NUV96SINNOSPWT000</x:t>
   </x:si>
   <x:si>
     <x:t>NUV96SIN0000WT000</x:t>
   </x:si>
   <x:si>
-    <x:t>ACC00SPO0000__NUV</x:t>
-  </x:si>
-  <x:si>
     <x:t>OVE94TAV0000RA000</x:t>
   </x:si>
   <x:si>
@@ -1502,9 +1487,6 @@
   </x:si>
   <x:si>
     <x:t>TUB93PTU0004__PER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ACC00CHAP020__000</x:t>
   </x:si>
   <x:si>
     <x:t>VEL78SOS0006D_000</x:t>
@@ -12948,7 +12930,7 @@
         <x:v>337</x:v>
       </x:c>
       <x:c r="R244" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U244" s="0" t="s">
         <x:v>56</x:v>
@@ -12992,7 +12974,7 @@
         <x:v>338</x:v>
       </x:c>
       <x:c r="R245" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U245" s="0" t="s">
         <x:v>56</x:v>
@@ -13036,7 +13018,7 @@
         <x:v>339</x:v>
       </x:c>
       <x:c r="R246" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U246" s="0" t="s">
         <x:v>56</x:v>
@@ -13080,7 +13062,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="R247" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U247" s="0" t="s">
         <x:v>56</x:v>
@@ -13124,7 +13106,7 @@
         <x:v>341</x:v>
       </x:c>
       <x:c r="R248" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U248" s="0" t="s">
         <x:v>56</x:v>
@@ -13168,7 +13150,7 @@
         <x:v>342</x:v>
       </x:c>
       <x:c r="R249" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U249" s="0" t="s">
         <x:v>56</x:v>
@@ -13212,7 +13194,7 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="R250" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U250" s="0" t="s">
         <x:v>56</x:v>
@@ -13256,7 +13238,7 @@
         <x:v>344</x:v>
       </x:c>
       <x:c r="R251" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U251" s="0" t="s">
         <x:v>56</x:v>
@@ -13300,7 +13282,7 @@
         <x:v>345</x:v>
       </x:c>
       <x:c r="R252" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U252" s="0" t="s">
         <x:v>56</x:v>
@@ -13344,7 +13326,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="R253" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U253" s="0" t="s">
         <x:v>56</x:v>
@@ -13388,7 +13370,7 @@
         <x:v>347</x:v>
       </x:c>
       <x:c r="R254" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U254" s="0" t="s">
         <x:v>56</x:v>
@@ -13432,7 +13414,7 @@
         <x:v>348</x:v>
       </x:c>
       <x:c r="R255" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U255" s="0" t="s">
         <x:v>56</x:v>
@@ -13564,7 +13546,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="R258" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U258" s="0" t="s">
         <x:v>56</x:v>
@@ -13652,7 +13634,7 @@
         <x:v>353</x:v>
       </x:c>
       <x:c r="R260" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="U260" s="0" t="s">
         <x:v>56</x:v>
@@ -13693,10 +13675,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H261" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="R261" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U261" s="0" t="s">
         <x:v>56</x:v>
@@ -13784,7 +13766,7 @@
         <x:v>357</x:v>
       </x:c>
       <x:c r="R263" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="U263" s="0" t="s">
         <x:v>56</x:v>
@@ -13825,10 +13807,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H264" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="R264" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="U264" s="0" t="s">
         <x:v>56</x:v>
@@ -13872,7 +13854,7 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="R265" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U265" s="0" t="s">
         <x:v>56</x:v>
@@ -13916,7 +13898,7 @@
         <x:v>361</x:v>
       </x:c>
       <x:c r="R266" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="U266" s="0" t="s">
         <x:v>56</x:v>
@@ -13960,7 +13942,7 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="R267" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U267" s="0" t="s">
         <x:v>56</x:v>
@@ -14004,7 +13986,7 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="R268" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="U268" s="0" t="s">
         <x:v>56</x:v>
@@ -14136,7 +14118,7 @@
         <x:v>366</x:v>
       </x:c>
       <x:c r="R271" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U271" s="0" t="s">
         <x:v>56</x:v>
@@ -14180,7 +14162,7 @@
         <x:v>367</x:v>
       </x:c>
       <x:c r="R272" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="U272" s="0" t="s">
         <x:v>56</x:v>
@@ -14221,10 +14203,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H273" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="R273" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="U273" s="0" t="s">
         <x:v>56</x:v>
@@ -14265,10 +14247,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H274" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="R274" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="U274" s="0" t="s">
         <x:v>56</x:v>
@@ -14309,10 +14291,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H275" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="R275" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="U275" s="0" t="s">
         <x:v>56</x:v>
@@ -14353,10 +14335,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H276" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="R276" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U276" s="0" t="s">
         <x:v>56</x:v>
@@ -14400,7 +14382,7 @@
         <x:v>376</x:v>
       </x:c>
       <x:c r="R277" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="U277" s="0" t="s">
         <x:v>56</x:v>
@@ -14444,7 +14426,7 @@
         <x:v>377</x:v>
       </x:c>
       <x:c r="R278" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="U278" s="0" t="s">
         <x:v>56</x:v>
@@ -14485,10 +14467,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H279" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="R279" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="U279" s="0" t="s">
         <x:v>56</x:v>
@@ -14529,10 +14511,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H280" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="R280" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="U280" s="0" t="s">
         <x:v>56</x:v>
@@ -14576,7 +14558,7 @@
         <x:v>382</x:v>
       </x:c>
       <x:c r="R281" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U281" s="0" t="s">
         <x:v>56</x:v>
@@ -14620,7 +14602,7 @@
         <x:v>383</x:v>
       </x:c>
       <x:c r="R282" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="U282" s="0" t="s">
         <x:v>56</x:v>
@@ -14664,7 +14646,7 @@
         <x:v>384</x:v>
       </x:c>
       <x:c r="R283" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="U283" s="0" t="s">
         <x:v>56</x:v>
@@ -14708,7 +14690,7 @@
         <x:v>385</x:v>
       </x:c>
       <x:c r="R284" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="U284" s="0" t="s">
         <x:v>56</x:v>
@@ -14752,7 +14734,7 @@
         <x:v>386</x:v>
       </x:c>
       <x:c r="R285" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U285" s="0" t="s">
         <x:v>56</x:v>
@@ -14796,7 +14778,7 @@
         <x:v>387</x:v>
       </x:c>
       <x:c r="R286" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="U286" s="0" t="s">
         <x:v>56</x:v>
@@ -14840,7 +14822,7 @@
         <x:v>388</x:v>
       </x:c>
       <x:c r="R287" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="U287" s="0" t="s">
         <x:v>56</x:v>
@@ -14884,7 +14866,7 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="R288" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="U288" s="0" t="s">
         <x:v>56</x:v>
@@ -14928,7 +14910,7 @@
         <x:v>390</x:v>
       </x:c>
       <x:c r="R289" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U289" s="0" t="s">
         <x:v>56</x:v>
@@ -14972,7 +14954,7 @@
         <x:v>391</x:v>
       </x:c>
       <x:c r="R290" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="U290" s="0" t="s">
         <x:v>56</x:v>
@@ -15016,7 +14998,7 @@
         <x:v>392</x:v>
       </x:c>
       <x:c r="R291" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="U291" s="0" t="s">
         <x:v>56</x:v>
@@ -15060,7 +15042,7 @@
         <x:v>393</x:v>
       </x:c>
       <x:c r="R292" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="U292" s="0" t="s">
         <x:v>56</x:v>
@@ -15104,7 +15086,7 @@
         <x:v>394</x:v>
       </x:c>
       <x:c r="R293" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U293" s="0" t="s">
         <x:v>56</x:v>
@@ -15148,7 +15130,7 @@
         <x:v>395</x:v>
       </x:c>
       <x:c r="R294" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="U294" s="0" t="s">
         <x:v>56</x:v>
@@ -15192,7 +15174,7 @@
         <x:v>396</x:v>
       </x:c>
       <x:c r="R295" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="U295" s="0" t="s">
         <x:v>56</x:v>
@@ -15236,7 +15218,7 @@
         <x:v>397</x:v>
       </x:c>
       <x:c r="R296" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="U296" s="0" t="s">
         <x:v>56</x:v>
@@ -15280,7 +15262,7 @@
         <x:v>398</x:v>
       </x:c>
       <x:c r="R297" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U297" s="0" t="s">
         <x:v>56</x:v>
@@ -15500,7 +15482,7 @@
         <x:v>403</x:v>
       </x:c>
       <x:c r="R302" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U302" s="0" t="s">
         <x:v>56</x:v>
@@ -15544,7 +15526,7 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="R303" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U303" s="0" t="s">
         <x:v>56</x:v>
@@ -15632,7 +15614,7 @@
         <x:v>406</x:v>
       </x:c>
       <x:c r="R305" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="U305" s="0" t="s">
         <x:v>56</x:v>
@@ -15676,7 +15658,7 @@
         <x:v>407</x:v>
       </x:c>
       <x:c r="R306" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="U306" s="0" t="s">
         <x:v>56</x:v>
@@ -15717,10 +15699,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H307" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="R307" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="U307" s="0" t="s">
         <x:v>56</x:v>
@@ -15761,10 +15743,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H308" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="R308" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="U308" s="0" t="s">
         <x:v>56</x:v>
@@ -15805,10 +15787,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H309" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="R309" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U309" s="0" t="s">
         <x:v>56</x:v>
@@ -15852,7 +15834,7 @@
         <x:v>413</x:v>
       </x:c>
       <x:c r="R310" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="U310" s="0" t="s">
         <x:v>56</x:v>
@@ -15896,7 +15878,7 @@
         <x:v>414</x:v>
       </x:c>
       <x:c r="R311" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="U311" s="0" t="s">
         <x:v>56</x:v>
@@ -15940,7 +15922,7 @@
         <x:v>415</x:v>
       </x:c>
       <x:c r="R312" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="U312" s="0" t="s">
         <x:v>56</x:v>
@@ -15984,7 +15966,7 @@
         <x:v>416</x:v>
       </x:c>
       <x:c r="R313" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U313" s="0" t="s">
         <x:v>56</x:v>
@@ -16028,7 +16010,7 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="R314" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="U314" s="0" t="s">
         <x:v>56</x:v>
@@ -16072,7 +16054,7 @@
         <x:v>418</x:v>
       </x:c>
       <x:c r="R315" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U315" s="0" t="s">
         <x:v>56</x:v>
@@ -16116,7 +16098,7 @@
         <x:v>419</x:v>
       </x:c>
       <x:c r="R316" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U316" s="0" t="s">
         <x:v>56</x:v>
@@ -16160,7 +16142,7 @@
         <x:v>420</x:v>
       </x:c>
       <x:c r="R317" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="U317" s="0" t="s">
         <x:v>56</x:v>
@@ -16204,7 +16186,7 @@
         <x:v>421</x:v>
       </x:c>
       <x:c r="R318" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="U318" s="0" t="s">
         <x:v>56</x:v>
@@ -16248,7 +16230,7 @@
         <x:v>422</x:v>
       </x:c>
       <x:c r="R319" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U319" s="0" t="s">
         <x:v>56</x:v>
@@ -16292,7 +16274,7 @@
         <x:v>423</x:v>
       </x:c>
       <x:c r="R320" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U320" s="0" t="s">
         <x:v>56</x:v>
@@ -16336,7 +16318,7 @@
         <x:v>424</x:v>
       </x:c>
       <x:c r="R321" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="U321" s="0" t="s">
         <x:v>56</x:v>
@@ -16380,7 +16362,7 @@
         <x:v>425</x:v>
       </x:c>
       <x:c r="R322" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="U322" s="0" t="s">
         <x:v>56</x:v>
@@ -16424,7 +16406,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="R323" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U323" s="0" t="s">
         <x:v>56</x:v>
@@ -16468,7 +16450,7 @@
         <x:v>427</x:v>
       </x:c>
       <x:c r="R324" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U324" s="0" t="s">
         <x:v>56</x:v>
@@ -16556,7 +16538,7 @@
         <x:v>429</x:v>
       </x:c>
       <x:c r="R326" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U326" s="0" t="s">
         <x:v>56</x:v>
@@ -16600,7 +16582,7 @@
         <x:v>430</x:v>
       </x:c>
       <x:c r="R327" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="U327" s="0" t="s">
         <x:v>56</x:v>
@@ -16641,7 +16623,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H328" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="R328" s="0" t="s">
         <x:v>72</x:v>
@@ -16685,10 +16667,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H329" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="R329" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="U329" s="0" t="s">
         <x:v>56</x:v>
@@ -16729,10 +16711,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H330" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="R330" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="U330" s="0" t="s">
         <x:v>56</x:v>
@@ -16773,10 +16755,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H331" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>437</x:v>
       </x:c>
       <x:c r="R331" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="U331" s="0" t="s">
         <x:v>56</x:v>
@@ -16817,10 +16799,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H332" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="R332" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="U332" s="0" t="s">
         <x:v>56</x:v>
@@ -16861,10 +16843,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H333" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="R333" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="U333" s="0" t="s">
         <x:v>56</x:v>
@@ -16908,7 +16890,7 @@
         <x:v>441</x:v>
       </x:c>
       <x:c r="R334" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="U334" s="0" t="s">
         <x:v>56</x:v>
@@ -16952,7 +16934,7 @@
         <x:v>442</x:v>
       </x:c>
       <x:c r="R335" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="U335" s="0" t="s">
         <x:v>56</x:v>
@@ -16996,7 +16978,7 @@
         <x:v>443</x:v>
       </x:c>
       <x:c r="R336" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="U336" s="0" t="s">
         <x:v>56</x:v>
@@ -17040,7 +17022,7 @@
         <x:v>444</x:v>
       </x:c>
       <x:c r="R337" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="U337" s="0" t="s">
         <x:v>56</x:v>
@@ -17084,7 +17066,7 @@
         <x:v>445</x:v>
       </x:c>
       <x:c r="R338" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="U338" s="0" t="s">
         <x:v>56</x:v>
@@ -17125,10 +17107,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H339" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="R339" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="U339" s="0" t="s">
         <x:v>56</x:v>
@@ -17169,10 +17151,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H340" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="R340" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="U340" s="0" t="s">
         <x:v>56</x:v>
@@ -17216,7 +17198,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="R341" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="U341" s="0" t="s">
         <x:v>56</x:v>
@@ -17257,10 +17239,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H342" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="R342" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="U342" s="0" t="s">
         <x:v>56</x:v>
@@ -17301,10 +17283,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H343" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="R343" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="U343" s="0" t="s">
         <x:v>56</x:v>
@@ -17348,7 +17330,7 @@
         <x:v>453</x:v>
       </x:c>
       <x:c r="R344" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="U344" s="0" t="s">
         <x:v>56</x:v>
@@ -17392,7 +17374,7 @@
         <x:v>454</x:v>
       </x:c>
       <x:c r="R345" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="U345" s="0" t="s">
         <x:v>56</x:v>
@@ -17436,7 +17418,7 @@
         <x:v>455</x:v>
       </x:c>
       <x:c r="R346" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="U346" s="0" t="s">
         <x:v>56</x:v>
@@ -17480,7 +17462,7 @@
         <x:v>456</x:v>
       </x:c>
       <x:c r="R347" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="U347" s="0" t="s">
         <x:v>56</x:v>
@@ -17524,7 +17506,7 @@
         <x:v>457</x:v>
       </x:c>
       <x:c r="R348" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="U348" s="0" t="s">
         <x:v>56</x:v>
@@ -17568,7 +17550,7 @@
         <x:v>458</x:v>
       </x:c>
       <x:c r="R349" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="U349" s="0" t="s">
         <x:v>56</x:v>
@@ -17612,7 +17594,7 @@
         <x:v>459</x:v>
       </x:c>
       <x:c r="R350" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="U350" s="0" t="s">
         <x:v>56</x:v>
@@ -17656,7 +17638,7 @@
         <x:v>460</x:v>
       </x:c>
       <x:c r="R351" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="U351" s="0" t="s">
         <x:v>56</x:v>
@@ -17700,7 +17682,7 @@
         <x:v>461</x:v>
       </x:c>
       <x:c r="R352" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="U352" s="0" t="s">
         <x:v>56</x:v>
@@ -17741,10 +17723,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H353" s="0" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="R353" s="0" t="s">
         <x:v>462</x:v>
-      </x:c>
-      <x:c r="R353" s="0" t="s">
-        <x:v>452</x:v>
       </x:c>
       <x:c r="U353" s="0" t="s">
         <x:v>56</x:v>
@@ -17785,10 +17767,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H354" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="R354" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="U354" s="0" t="s">
         <x:v>56</x:v>
@@ -17832,7 +17814,7 @@
         <x:v>465</x:v>
       </x:c>
       <x:c r="R355" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="U355" s="0" t="s">
         <x:v>56</x:v>
@@ -17876,7 +17858,7 @@
         <x:v>466</x:v>
       </x:c>
       <x:c r="R356" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U356" s="0" t="s">
         <x:v>56</x:v>
@@ -17920,7 +17902,7 @@
         <x:v>467</x:v>
       </x:c>
       <x:c r="R357" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="U357" s="0" t="s">
         <x:v>56</x:v>
@@ -17964,7 +17946,7 @@
         <x:v>468</x:v>
       </x:c>
       <x:c r="R358" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="U358" s="0" t="s">
         <x:v>56</x:v>
@@ -18005,10 +17987,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H359" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="R359" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U359" s="0" t="s">
         <x:v>56</x:v>
@@ -18049,10 +18031,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H360" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="R360" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="U360" s="0" t="s">
         <x:v>56</x:v>
@@ -18096,7 +18078,7 @@
         <x:v>472</x:v>
       </x:c>
       <x:c r="R361" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="U361" s="0" t="s">
         <x:v>56</x:v>
@@ -18140,7 +18122,7 @@
         <x:v>473</x:v>
       </x:c>
       <x:c r="R362" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="U362" s="0" t="s">
         <x:v>56</x:v>
@@ -18181,10 +18163,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H363" s="0" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="R363" s="0" t="s">
         <x:v>474</x:v>
-      </x:c>
-      <x:c r="R363" s="0" t="s">
-        <x:v>96</x:v>
       </x:c>
       <x:c r="U363" s="0" t="s">
         <x:v>56</x:v>
@@ -18225,10 +18207,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H364" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="R364" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>477</x:v>
       </x:c>
       <x:c r="U364" s="0" t="s">
         <x:v>56</x:v>
@@ -18269,10 +18251,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H365" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="R365" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="U365" s="0" t="s">
         <x:v>56</x:v>
@@ -18313,10 +18295,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H366" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="R366" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="U366" s="0" t="s">
         <x:v>56</x:v>
@@ -18357,10 +18339,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H367" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="R367" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="U367" s="0" t="s">
         <x:v>56</x:v>
@@ -18401,10 +18383,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H368" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>483</x:v>
       </x:c>
       <x:c r="R368" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="U368" s="0" t="s">
         <x:v>56</x:v>
@@ -18445,10 +18427,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H369" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="R369" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>480</x:v>
       </x:c>
       <x:c r="U369" s="0" t="s">
         <x:v>56</x:v>
@@ -18489,10 +18471,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H370" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="R370" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>487</x:v>
       </x:c>
       <x:c r="U370" s="0" t="s">
         <x:v>56</x:v>
@@ -18533,10 +18515,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H371" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>488</x:v>
       </x:c>
       <x:c r="R371" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="U371" s="0" t="s">
         <x:v>56</x:v>
@@ -18577,10 +18559,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H372" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="R372" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="U372" s="0" t="s">
         <x:v>56</x:v>
@@ -18621,10 +18603,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H373" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>491</x:v>
       </x:c>
       <x:c r="R373" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="U373" s="0" t="s">
         <x:v>56</x:v>
@@ -18665,10 +18647,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H374" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>493</x:v>
       </x:c>
       <x:c r="R374" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="U374" s="0" t="s">
         <x:v>56</x:v>
@@ -18709,10 +18691,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H375" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>495</x:v>
       </x:c>
       <x:c r="R375" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="U375" s="0" t="s">
         <x:v>56</x:v>
@@ -18753,10 +18735,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H376" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>497</x:v>
       </x:c>
       <x:c r="R376" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="U376" s="0" t="s">
         <x:v>56</x:v>
@@ -18797,10 +18779,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H377" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>498</x:v>
       </x:c>
       <x:c r="R377" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U377" s="0" t="s">
         <x:v>56</x:v>
@@ -18841,10 +18823,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H378" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="R378" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U378" s="0" t="s">
         <x:v>56</x:v>
@@ -18885,10 +18867,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H379" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="R379" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U379" s="0" t="s">
         <x:v>56</x:v>
@@ -18929,10 +18911,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H380" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="R380" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U380" s="0" t="s">
         <x:v>56</x:v>
@@ -18973,10 +18955,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H381" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="R381" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="U381" s="0" t="s">
         <x:v>56</x:v>
@@ -19017,10 +18999,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H382" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="R382" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U382" s="0" t="s">
         <x:v>56</x:v>
@@ -19061,10 +19043,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H383" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="R383" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="U383" s="0" t="s">
         <x:v>56</x:v>
@@ -19105,10 +19087,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H384" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="R384" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="U384" s="0" t="s">
         <x:v>56</x:v>
@@ -19149,10 +19131,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H385" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="R385" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="U385" s="0" t="s">
         <x:v>56</x:v>
@@ -19193,10 +19175,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H386" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
       <x:c r="R386" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U386" s="0" t="s">
         <x:v>56</x:v>
@@ -19237,10 +19219,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="H387" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="R387" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U387" s="0" t="s">
         <x:v>56</x:v>
@@ -19284,7 +19266,7 @@
         <x:v>510</x:v>
       </x:c>
       <x:c r="R388" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U388" s="0" t="s">
         <x:v>56</x:v>
@@ -19328,7 +19310,7 @@
         <x:v>511</x:v>
       </x:c>
       <x:c r="R389" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U389" s="0" t="s">
         <x:v>56</x:v>
@@ -19372,7 +19354,7 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="R390" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="U390" s="0" t="s">
         <x:v>56</x:v>
@@ -19416,7 +19398,7 @@
         <x:v>513</x:v>
       </x:c>
       <x:c r="R391" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U391" s="0" t="s">
         <x:v>56</x:v>
@@ -19460,7 +19442,7 @@
         <x:v>514</x:v>
       </x:c>
       <x:c r="R392" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="U392" s="0" t="s">
         <x:v>56</x:v>
@@ -19504,7 +19486,7 @@
         <x:v>515</x:v>
       </x:c>
       <x:c r="R393" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="U393" s="0" t="s">
         <x:v>56</x:v>
@@ -19548,7 +19530,7 @@
         <x:v>516</x:v>
       </x:c>
       <x:c r="R394" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="U394" s="0" t="s">
         <x:v>56</x:v>
@@ -19592,7 +19574,7 @@
         <x:v>517</x:v>
       </x:c>
       <x:c r="R395" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="U395" s="0" t="s">
         <x:v>56</x:v>
@@ -19636,7 +19618,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c r="R396" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="U396" s="0" t="s">
         <x:v>56</x:v>
@@ -19680,7 +19662,7 @@
         <x:v>519</x:v>
       </x:c>
       <x:c r="R397" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U397" s="0" t="s">
         <x:v>56</x:v>
@@ -19724,7 +19706,7 @@
         <x:v>520</x:v>
       </x:c>
       <x:c r="R398" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U398" s="0" t="s">
         <x:v>56</x:v>
@@ -19768,7 +19750,7 @@
         <x:v>521</x:v>
       </x:c>
       <x:c r="R399" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U399" s="0" t="s">
         <x:v>56</x:v>
@@ -19812,7 +19794,7 @@
         <x:v>522</x:v>
       </x:c>
       <x:c r="R400" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U400" s="0" t="s">
         <x:v>56</x:v>
@@ -19856,7 +19838,7 @@
         <x:v>523</x:v>
       </x:c>
       <x:c r="R401" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="U401" s="0" t="s">
         <x:v>56</x:v>
@@ -19900,7 +19882,7 @@
         <x:v>524</x:v>
       </x:c>
       <x:c r="R402" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U402" s="0" t="s">
         <x:v>56</x:v>
@@ -19944,7 +19926,7 @@
         <x:v>525</x:v>
       </x:c>
       <x:c r="R403" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="U403" s="0" t="s">
         <x:v>56</x:v>
@@ -19988,7 +19970,7 @@
         <x:v>526</x:v>
       </x:c>
       <x:c r="R404" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="U404" s="0" t="s">
         <x:v>56</x:v>
@@ -20032,7 +20014,7 @@
         <x:v>527</x:v>
       </x:c>
       <x:c r="R405" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="U405" s="0" t="s">
         <x:v>56</x:v>
@@ -20076,7 +20058,7 @@
         <x:v>528</x:v>
       </x:c>
       <x:c r="R406" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U406" s="0" t="s">
         <x:v>56</x:v>
@@ -20120,7 +20102,7 @@
         <x:v>529</x:v>
       </x:c>
       <x:c r="R407" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U407" s="0" t="s">
         <x:v>56</x:v>
@@ -20164,7 +20146,7 @@
         <x:v>530</x:v>
       </x:c>
       <x:c r="R408" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U408" s="0" t="s">
         <x:v>56</x:v>
@@ -20208,7 +20190,7 @@
         <x:v>531</x:v>
       </x:c>
       <x:c r="R409" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U409" s="0" t="s">
         <x:v>56</x:v>
@@ -20252,7 +20234,7 @@
         <x:v>532</x:v>
       </x:c>
       <x:c r="R410" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="U410" s="0" t="s">
         <x:v>56</x:v>
@@ -20296,7 +20278,7 @@
         <x:v>533</x:v>
       </x:c>
       <x:c r="R411" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U411" s="0" t="s">
         <x:v>56</x:v>
@@ -20340,7 +20322,7 @@
         <x:v>534</x:v>
       </x:c>
       <x:c r="R412" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="U412" s="0" t="s">
         <x:v>56</x:v>
@@ -20428,7 +20410,7 @@
         <x:v>536</x:v>
       </x:c>
       <x:c r="R414" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U414" s="0" t="s">
         <x:v>56</x:v>
@@ -20472,7 +20454,7 @@
         <x:v>537</x:v>
       </x:c>
       <x:c r="R415" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U415" s="0" t="s">
         <x:v>56</x:v>
@@ -20516,7 +20498,7 @@
         <x:v>538</x:v>
       </x:c>
       <x:c r="R416" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U416" s="0" t="s">
         <x:v>56</x:v>
@@ -20560,7 +20542,7 @@
         <x:v>539</x:v>
       </x:c>
       <x:c r="R417" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U417" s="0" t="s">
         <x:v>56</x:v>
@@ -20604,7 +20586,7 @@
         <x:v>540</x:v>
       </x:c>
       <x:c r="R418" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U418" s="0" t="s">
         <x:v>56</x:v>
@@ -20648,7 +20630,7 @@
         <x:v>541</x:v>
       </x:c>
       <x:c r="R419" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="U419" s="0" t="s">
         <x:v>56</x:v>
@@ -20692,7 +20674,7 @@
         <x:v>542</x:v>
       </x:c>
       <x:c r="R420" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="U420" s="0" t="s">
         <x:v>56</x:v>
@@ -20912,7 +20894,7 @@
         <x:v>547</x:v>
       </x:c>
       <x:c r="R425" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U425" s="0" t="s">
         <x:v>56</x:v>
@@ -20956,7 +20938,7 @@
         <x:v>548</x:v>
       </x:c>
       <x:c r="R426" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U426" s="0" t="s">
         <x:v>56</x:v>
@@ -21000,7 +20982,7 @@
         <x:v>549</x:v>
       </x:c>
       <x:c r="R427" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="U427" s="0" t="s">
         <x:v>56</x:v>
@@ -21044,7 +21026,7 @@
         <x:v>550</x:v>
       </x:c>
       <x:c r="R428" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U428" s="0" t="s">
         <x:v>56</x:v>
@@ -21088,7 +21070,7 @@
         <x:v>551</x:v>
       </x:c>
       <x:c r="R429" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="U429" s="0" t="s">
         <x:v>56</x:v>
@@ -21132,7 +21114,7 @@
         <x:v>552</x:v>
       </x:c>
       <x:c r="R430" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="U430" s="0" t="s">
         <x:v>56</x:v>
@@ -21176,7 +21158,7 @@
         <x:v>553</x:v>
       </x:c>
       <x:c r="R431" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="U431" s="0" t="s">
         <x:v>56</x:v>
@@ -21220,7 +21202,7 @@
         <x:v>554</x:v>
       </x:c>
       <x:c r="R432" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U432" s="0" t="s">
         <x:v>56</x:v>
@@ -21264,7 +21246,7 @@
         <x:v>555</x:v>
       </x:c>
       <x:c r="R433" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U433" s="0" t="s">
         <x:v>56</x:v>
@@ -21308,7 +21290,7 @@
         <x:v>556</x:v>
       </x:c>
       <x:c r="R434" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U434" s="0" t="s">
         <x:v>56</x:v>
@@ -21352,7 +21334,7 @@
         <x:v>557</x:v>
       </x:c>
       <x:c r="R435" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U435" s="0" t="s">
         <x:v>56</x:v>
@@ -21396,7 +21378,7 @@
         <x:v>558</x:v>
       </x:c>
       <x:c r="R436" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U436" s="0" t="s">
         <x:v>56</x:v>
@@ -21440,7 +21422,7 @@
         <x:v>559</x:v>
       </x:c>
       <x:c r="R437" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U437" s="0" t="s">
         <x:v>56</x:v>
@@ -21484,7 +21466,7 @@
         <x:v>560</x:v>
       </x:c>
       <x:c r="R438" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="U438" s="0" t="s">
         <x:v>56</x:v>
@@ -21528,7 +21510,7 @@
         <x:v>561</x:v>
       </x:c>
       <x:c r="R439" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="U439" s="0" t="s">
         <x:v>56</x:v>
@@ -21572,7 +21554,7 @@
         <x:v>562</x:v>
       </x:c>
       <x:c r="R440" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="U440" s="0" t="s">
         <x:v>56</x:v>
@@ -21616,7 +21598,7 @@
         <x:v>563</x:v>
       </x:c>
       <x:c r="R441" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="U441" s="0" t="s">
         <x:v>56</x:v>
@@ -21660,7 +21642,7 @@
         <x:v>564</x:v>
       </x:c>
       <x:c r="R442" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U442" s="0" t="s">
         <x:v>56</x:v>
@@ -21704,7 +21686,7 @@
         <x:v>565</x:v>
       </x:c>
       <x:c r="R443" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U443" s="0" t="s">
         <x:v>56</x:v>
@@ -21748,7 +21730,7 @@
         <x:v>566</x:v>
       </x:c>
       <x:c r="R444" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U444" s="0" t="s">
         <x:v>56</x:v>
@@ -21792,7 +21774,7 @@
         <x:v>567</x:v>
       </x:c>
       <x:c r="R445" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="U445" s="0" t="s">
         <x:v>56</x:v>
@@ -21836,7 +21818,7 @@
         <x:v>568</x:v>
       </x:c>
       <x:c r="R446" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U446" s="0" t="s">
         <x:v>56</x:v>
@@ -21880,7 +21862,7 @@
         <x:v>569</x:v>
       </x:c>
       <x:c r="R447" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U447" s="0" t="s">
         <x:v>56</x:v>
@@ -22012,7 +21994,7 @@
         <x:v>572</x:v>
       </x:c>
       <x:c r="R450" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="U450" s="0" t="s">
         <x:v>56</x:v>
@@ -22056,7 +22038,7 @@
         <x:v>573</x:v>
       </x:c>
       <x:c r="R451" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="U451" s="0" t="s">
         <x:v>56</x:v>
@@ -22100,7 +22082,7 @@
         <x:v>574</x:v>
       </x:c>
       <x:c r="R452" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="U452" s="0" t="s">
         <x:v>56</x:v>
@@ -22144,7 +22126,7 @@
         <x:v>575</x:v>
       </x:c>
       <x:c r="R453" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="U453" s="0" t="s">
         <x:v>56</x:v>
@@ -22188,7 +22170,7 @@
         <x:v>576</x:v>
       </x:c>
       <x:c r="R454" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="U454" s="0" t="s">
         <x:v>56</x:v>
@@ -22212,270 +22194,6 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="AV454" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="455" spans="1:52">
-      <x:c r="A455" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B455" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C455" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G455" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H455" s="0" t="s">
-        <x:v>577</x:v>
-      </x:c>
-      <x:c r="R455" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="U455" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="V455" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="W455" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Y455" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AD455" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AE455" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AG455" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AV455" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="456" spans="1:52">
-      <x:c r="A456" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B456" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C456" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G456" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H456" s="0" t="s">
-        <x:v>578</x:v>
-      </x:c>
-      <x:c r="R456" s="0" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="U456" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="V456" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="W456" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Y456" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AD456" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AE456" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AG456" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AV456" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="457" spans="1:52">
-      <x:c r="A457" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B457" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C457" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G457" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H457" s="0" t="s">
-        <x:v>579</x:v>
-      </x:c>
-      <x:c r="R457" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="U457" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="V457" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="W457" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Y457" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AD457" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AE457" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AG457" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AV457" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="458" spans="1:52">
-      <x:c r="A458" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B458" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C458" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G458" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H458" s="0" t="s">
-        <x:v>580</x:v>
-      </x:c>
-      <x:c r="R458" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="U458" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="V458" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="W458" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Y458" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AD458" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AE458" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AG458" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AV458" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="459" spans="1:52">
-      <x:c r="A459" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B459" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C459" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G459" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H459" s="0" t="s">
-        <x:v>581</x:v>
-      </x:c>
-      <x:c r="R459" s="0" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="U459" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="V459" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="W459" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Y459" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AD459" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AE459" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AG459" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AV459" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="460" spans="1:52">
-      <x:c r="A460" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B460" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C460" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G460" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H460" s="0" t="s">
-        <x:v>582</x:v>
-      </x:c>
-      <x:c r="R460" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="U460" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="V460" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="W460" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Y460" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AD460" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AE460" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AG460" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="AV460" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
     </x:row>
